--- a/上課用目錄/1108python應用基礎班/lesson12/pm25.xlsx
+++ b/上課用目錄/1108python應用基礎班/lesson12/pm25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G74"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,6 +495,11 @@
           <t>2022/09/05 14:00:00</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>aqi最大值</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
